--- a/biology/Zoologie/Anabasitte_à_pattes_roses/Anabasitte_à_pattes_roses.xlsx
+++ b/biology/Zoologie/Anabasitte_à_pattes_roses/Anabasitte_à_pattes_roses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anabasitte_%C3%A0_pattes_roses</t>
+          <t>Anabasitte_à_pattes_roses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrobatornis fonsecai
 L'Anabasitte à pattes roses (Acrobatornis fonsecai) est une espèce appartenant à la famille des Furnariidae. C'est la seule espèce du genre Acrobatornis (masculin). Il est endémique au sud-est de Brésil.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anabasitte_%C3%A0_pattes_roses</t>
+          <t>Anabasitte_à_pattes_roses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Acrobatornis, du grec ancien ἀκροβάτης, akrobátês, « qui marche sur la pointe des pieds », et ὄρνις, órnis, « oiseau » fait référence au comportement acrobatique d'escalade et de recherche de nourriture de cet oiseau[1].
-Son nom spécifique, fonsecai, lui a été donné en l'honneur de Paulo Sergio Moreira da Fonseca (de Rio de Janeiro), ami aux talents multiples des auteurs depuis de nombreuses années pour son soutien à l'équipe dans l'identification et l'observation des oiseaux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Acrobatornis, du grec ancien ἀκροβάτης, akrobátês, « qui marche sur la pointe des pieds », et ὄρνις, órnis, « oiseau » fait référence au comportement acrobatique d'escalade et de recherche de nourriture de cet oiseau.
+Son nom spécifique, fonsecai, lui a été donné en l'honneur de Paulo Sergio Moreira da Fonseca (de Rio de Janeiro), ami aux talents multiples des auteurs depuis de nombreuses années pour son soutien à l'équipe dans l'identification et l'observation des oiseaux.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anabasitte_%C3%A0_pattes_roses</t>
+          <t>Anabasitte_à_pattes_roses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) José Fernando Pacheco, Bret M. Whitney et Luiz P. Gonzaga, « A new genus and species of furnariid (aves: Furnariidae) from the cocoa-growing region of southeastern Bahia, Brazil », The Wilson Bulletin, vol. 108, no 3,‎ septembre 1996, p. 397-433 (ISSN 0043-5643 et 2162-5204, lire en ligne)</t>
         </is>
